--- a/documentos/Cadastro Lojas.xlsx
+++ b/documentos/Cadastro Lojas.xlsx
@@ -2832,7 +2832,7 @@
   <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
